--- a/testdata/lists/description_en.xlsx
+++ b/testdata/lists/description_en.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/lists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1563C-FB92-B640-83E8-7D94424BCEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>layer characteristics</t>
   </si>
@@ -77,53 +86,40 @@
   </si>
   <si>
     <t>clustered</t>
+  </si>
+  <si>
+    <t>second sublist</t>
+  </si>
+  <si>
+    <t>node of second sublist</t>
+  </si>
+  <si>
+    <t>third sublist</t>
+  </si>
+  <si>
+    <t>special characters 1&amp;2-%*_0 are embedded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,52 +127,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,24 +144,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +424,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -423,7 +443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -453,7 +473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -479,7 +499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,9 +694,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -693,7 +719,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -712,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,9 +985,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -975,7 +1007,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -994,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,346 +1277,383 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="A23:B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="4" width="22.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="4">
+    <row r="1" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="4">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="4">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" s="4">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s" s="6">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s" s="6">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s" s="4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s" s="4">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s" s="4">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s" s="4">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s" s="4">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s" s="4">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s" s="4">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s" s="4">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s" s="4">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s" s="6">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s" s="4">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s" s="6">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s" s="4">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s" s="4">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="4">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/testdata/lists/description_en.xlsx
+++ b/testdata/lists/description_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1563C-FB92-B640-83E8-7D94424BCEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD684D-E6AA-2B46-BA92-0834C54B9C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>layer characteristics</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>special characters 1&amp;2-%*_0 are embedded</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>deeply</t>
+  </si>
+  <si>
+    <t>nested!</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="A23:B26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1651,6 +1660,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/testdata/lists/description_en.xlsx
+++ b/testdata/lists/description_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD684D-E6AA-2B46-BA92-0834C54B9C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136D746-CABA-074E-BD32-88D570C3C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,73 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
-  <si>
-    <t>layer characteristics</t>
-  </si>
-  <si>
-    <t>texture (grain size)</t>
-  </si>
-  <si>
-    <t>clay</t>
-  </si>
-  <si>
-    <t>silt</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>fine sand</t>
-  </si>
-  <si>
-    <t>medium sand</t>
-  </si>
-  <si>
-    <t>coarse sand</t>
-  </si>
-  <si>
-    <t>gravel</t>
-  </si>
-  <si>
-    <t>fine gravel</t>
-  </si>
-  <si>
-    <t>middle gravel</t>
-  </si>
-  <si>
-    <t>coarse gravel</t>
-  </si>
-  <si>
-    <t>pebbles</t>
-  </si>
-  <si>
-    <t>blocks</t>
-  </si>
-  <si>
-    <t>stratification</t>
-  </si>
-  <si>
-    <t>layered</t>
-  </si>
-  <si>
-    <t>laminated</t>
-  </si>
-  <si>
-    <t>fining upward</t>
-  </si>
-  <si>
-    <t>coarsening upward</t>
-  </si>
-  <si>
-    <t>horizontal orientation</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>clustered</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>second sublist</t>
   </si>
@@ -100,13 +34,58 @@
     <t>special characters 1&amp;2-%*_0 are embedded</t>
   </si>
   <si>
-    <t>very</t>
-  </si>
-  <si>
     <t>deeply</t>
   </si>
   <si>
     <t>nested!</t>
+  </si>
+  <si>
+    <t>first sublist</t>
+  </si>
+  <si>
+    <t>first subnode</t>
+  </si>
+  <si>
+    <t>second subnode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   very  </t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                very     </t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1287,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1334,10 +1313,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1346,13 +1325,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1360,13 +1339,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1374,13 +1353,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1388,61 +1367,61 @@
     </row>
     <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1450,61 +1429,61 @@
     </row>
     <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1512,13 +1491,13 @@
     </row>
     <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1526,10 +1505,10 @@
     </row>
     <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1538,13 +1517,13 @@
     </row>
     <row r="16" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1552,13 +1531,13 @@
     </row>
     <row r="17" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1566,13 +1545,13 @@
     </row>
     <row r="18" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1580,13 +1559,13 @@
     </row>
     <row r="19" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1594,13 +1573,13 @@
     </row>
     <row r="20" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1608,13 +1587,13 @@
     </row>
     <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1622,13 +1601,13 @@
     </row>
     <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1636,70 +1615,70 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/lists/description_en.xlsx
+++ b/testdata/lists/description_en.xlsx
@@ -1,129 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/lists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136D746-CABA-074E-BD32-88D570C3C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>layer characteristics</t>
-  </si>
-  <si>
-    <t>texture (grain size)</t>
-  </si>
-  <si>
-    <t>clay</t>
-  </si>
-  <si>
-    <t>silt</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>fine sand</t>
-  </si>
-  <si>
-    <t>medium sand</t>
-  </si>
-  <si>
-    <t>coarse sand</t>
-  </si>
-  <si>
-    <t>gravel</t>
-  </si>
-  <si>
-    <t>fine gravel</t>
-  </si>
-  <si>
-    <t>middle gravel</t>
-  </si>
-  <si>
-    <t>coarse gravel</t>
-  </si>
-  <si>
-    <t>pebbles</t>
-  </si>
-  <si>
-    <t>blocks</t>
-  </si>
-  <si>
-    <t>stratification</t>
-  </si>
-  <si>
-    <t>layered</t>
-  </si>
-  <si>
-    <t>laminated</t>
-  </si>
-  <si>
-    <t>fining upward</t>
-  </si>
-  <si>
-    <t>coarsening upward</t>
-  </si>
-  <si>
-    <t>horizontal orientation</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>clustered</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+  <si>
+    <t>second sublist</t>
+  </si>
+  <si>
+    <t>node of second sublist</t>
+  </si>
+  <si>
+    <t>third sublist</t>
+  </si>
+  <si>
+    <t>special characters 1&amp;2-%*_0 are embedded</t>
+  </si>
+  <si>
+    <t>deeply</t>
+  </si>
+  <si>
+    <t>nested!</t>
+  </si>
+  <si>
+    <t>first sublist</t>
+  </si>
+  <si>
+    <t>first subnode</t>
+  </si>
+  <si>
+    <t>second subnode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   very  </t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>coarse</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                very     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,52 +115,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,24 +132,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +412,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -423,7 +431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -453,7 +461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -479,7 +487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,9 +682,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -693,7 +707,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -712,7 +726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,9 +973,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -975,7 +995,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -994,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,346 +1265,425 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="4" width="22.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="2">
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="5">
+    </row>
+    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="5">
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="5">
+    </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="5">
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
